--- a/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-Br-ri.xlsx
+++ b/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-Br-ri.xlsx
@@ -197,7 +197,7 @@
     <t>https://openminds.ebrains.eu/instances/productAccessibility/paidAccess</t>
   </si>
   <si>
-    <t>https://openminds.ebrans.eu/instances/ISBN/0-12-547612-4</t>
+    <t>https://openminds.ebrains.eu/instances/ISBN/0-12-547612-4</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:F1139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-Br-ri.xlsx
+++ b/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-Br-ri.xlsx
@@ -179,9 +179,6 @@
     <t>at HK: please check if this makes sense</t>
   </si>
   <si>
-    <t>v2004 (Bregma, right)</t>
-  </si>
-  <si>
     <t>PW-RBSC-corT</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>https://openminds.ebrains.eu/instances/ISBN/0-12-547612-4</t>
+  </si>
+  <si>
+    <t>v2004 (Bregma, RIA)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:F1139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
         <v>50</v>
